--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/TriggerToken/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A698A8B5-22BC-594F-AA56-86A93AA3ED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EB7C50-AD68-5248-99E6-D9C00CA03F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,11 +175,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>個人計畫表單前後端完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>改用多頁多form，不需要存session或使用form wizard，比較單純</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成開始風險計畫前端以及表單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成個人計畫表單前後端</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -807,10 +811,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -995,25 +999,35 @@
         <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="25">
         <v>44790</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+    <row r="9" spans="1:8" ht="38">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44790</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7EB7C50-AD68-5248-99E6-D9C00CA03F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE038F0E-4051-9141-A737-B74839F2E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,6 +184,38 @@
   </si>
   <si>
     <t>完成個人計畫表單前後端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5HR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Django APP 設置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>將系統分為 club、membersystem兩個子app，並將model建置完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Django 網站多語言設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功設定多語言環境以及config檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>將 ben 學長翻譯好的設定進去</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS EC2 環境設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定開發環境</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -811,10 +843,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -1026,38 +1058,70 @@
         <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="18">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+    <row r="10" spans="1:8" ht="68">
+      <c r="A10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44792</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+    <row r="11" spans="1:8" ht="38">
+      <c r="A11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44792</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+    <row r="12" spans="1:8" ht="38">
+      <c r="A12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44792</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE038F0E-4051-9141-A737-B74839F2E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F98F91-6710-4D41-B42F-7469976895CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21780" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
@@ -843,10 +843,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F98F91-6710-4D41-B42F-7469976895CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C127D656-9E8B-A843-9DDC-1B02FC04BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -215,7 +215,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>設定開發環境</t>
+    <t>設定開發環境（aws linux2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新設定開發環境（RiskDAO、Crowd Funding，both on ubuntu）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portfolio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protfolio頁面雛型完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -843,10 +855,10 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -1126,22 +1138,42 @@
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+    <row r="13" spans="1:8" ht="68">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44794</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="18">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+    <row r="14" spans="1:8" ht="34">
+      <c r="A14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44795</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C127D656-9E8B-A843-9DDC-1B02FC04BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F5C3E-EDC8-2C4B-B2C1-03677AA5348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>執行時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>預計完成日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3 HR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AWS EC2 部署測試</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,10 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2 HR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20222/8/11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2HR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>風險供給開始表單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,18 +143,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5 HR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Django前端實作 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6HR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>base, sidebar, navbar樣板完成，表單製作中（以form wizard實作）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,10 +155,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3HR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>開發環境改成 Django，架設 git</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,10 +171,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5HR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Django APP 設置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,6 +208,38 @@
   </si>
   <si>
     <t>Protfolio頁面雛型完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端中英切換功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端中英切換翻譯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能在選單選取中英文並成功切換語言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>將 trans tag 插入 html，讓中英切換時能夠順利換成對應的詞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行時間（單位：小時）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的插入所有 trans tag（html+js）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論細節並調整成完整版</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有現有頁面翻譯功能完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,12 +447,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -453,9 +459,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,9 +473,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,423 +852,596 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="4" width="15.1640625" style="8"/>
-    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="7"/>
+    <col min="1" max="4" width="15.1640625" style="6"/>
+    <col min="5" max="5" width="37.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="5"/>
     <col min="8" max="16384" width="15.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="24" customFormat="1" ht="22">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" s="20" customFormat="1" ht="22">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="J1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" ht="51">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" ht="68">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="51">
-      <c r="A2" s="10" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" ht="51">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44782</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="68">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B5" s="8">
+        <v>44783</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="38">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44785</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="68">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44788</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="21">
+        <v>44790</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="68">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44789</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="21">
+        <v>44790</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="38">
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44790</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="68">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44792</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="38">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44792</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="21">
+        <v>44795</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="38">
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44792</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="68">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44794</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="34">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44795</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="38">
+      <c r="A15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44795</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="68">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44795</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="21">
+        <v>44796</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="38">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44796</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" ht="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="68">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="51">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11">
-        <v>44782</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="68">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11">
-        <v>44783</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="38">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11">
-        <v>44785</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="68">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
-        <v>44788</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="25">
-        <v>44790</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="68">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="11">
-        <v>44789</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="25">
-        <v>44790</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="38">
-      <c r="A9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11">
-        <v>44790</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="68">
-      <c r="A10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="11">
-        <v>44792</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="38">
-      <c r="A11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="11">
-        <v>44792</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="38">
-      <c r="A12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11">
-        <v>44792</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="68">
-      <c r="A13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="11">
-        <v>44794</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="34">
-      <c r="A14" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11">
-        <v>44795</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="18">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="C17" s="15"/>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18">
-      <c r="A18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="I18" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="19" spans="1:11" ht="18">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="2"/>
       <c r="K19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="18">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="E23" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="18">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="18">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="18">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="18">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="18">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="18">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="18">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="18">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" ht="18">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="18">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="18">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.33" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6F5C3E-EDC8-2C4B-B2C1-03677AA5348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F1ED1B-6BEF-6B40-85B3-8B45E75DF2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Portfolio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Protfolio頁面雛型完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -240,6 +236,22 @@
   </si>
   <si>
     <t>所有現有頁面翻譯功能完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model migrate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立資料表共四個（計畫資料表、參與人資料表、使用者資訊資料表、錢包資料表）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>portforlio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>portforlio頁面細節完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +867,10 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -884,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>18</v>
@@ -1203,16 +1215,16 @@
         <v>44795</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
@@ -1225,10 +1237,10 @@
         <v>44795</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4">
         <v>3</v>
@@ -1245,16 +1257,16 @@
         <v>44795</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G16" s="21">
         <v>44796</v>
@@ -1269,24 +1281,34 @@
         <v>44796</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="21"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+    <row r="18" spans="1:11" ht="85">
+      <c r="A18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44797</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="21"/>
       <c r="H18" s="2"/>
@@ -1294,12 +1316,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+    <row r="19" spans="1:11" ht="34">
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8">
+        <v>44797</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="21"/>
       <c r="H19" s="2"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F1ED1B-6BEF-6B40-85B3-8B45E75DF2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7400071C-E504-1847-BD68-9955386C475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -252,6 +252,22 @@
   </si>
   <si>
     <t>portforlio頁面細節完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員系統</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員系統前端頁面、navbar調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員系統後端以及metamask登入功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>透過metamask註冊、登入，前後端功能完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -867,10 +883,10 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -1339,22 +1355,46 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="21"/>
+    <row r="20" spans="1:11" ht="34">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44797</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="21">
+        <v>44798</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="18">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+    <row r="21" spans="1:11" ht="51">
+      <c r="A21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44798</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="21"/>
       <c r="H21" s="2"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7400071C-E504-1847-BD68-9955386C475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AF9320-C070-504E-B539-A432B82C5372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,11 +882,11 @@
   </sheetPr>
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AF9320-C070-504E-B539-A432B82C5372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897F04C-9248-0448-AC74-FFBA94143661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -268,6 +268,34 @@
   </si>
   <si>
     <t>透過metamask註冊、登入，前後端功能完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>landing Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作登陸頁作為入口網。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>細節內容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容添加、細節調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入群組功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入群組列表、表單、重新調整路由、重新調整model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入一般帳密註冊登入、修改介面、註冊帳號重複檢查、密碼確認機制</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +911,10 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -1399,42 +1427,86 @@
       <c r="G21" s="21"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="18">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="21"/>
+    <row r="22" spans="1:11" ht="34">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44801</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="21">
+        <v>44802</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="18">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
+    <row r="23" spans="1:11" ht="34">
+      <c r="A23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44801</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="21"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="18">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
+    <row r="24" spans="1:11" ht="68">
+      <c r="A24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44802</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="21"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="18">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+    <row r="25" spans="1:11" ht="68">
+      <c r="A25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>44802</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="21"/>
       <c r="H25" s="2"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897F04C-9248-0448-AC74-FFBA94143661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1C0A3-3282-FD4A-87A4-426A92B42052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -296,6 +296,30 @@
   </si>
   <si>
     <t>加入一般帳密註冊登入、修改介面、註冊帳號重複檢查、密碼確認機制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERC865</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合約部署及測試</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金點數儲值功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方金流串接、django頁面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詢問發行總量再部署確認版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非區塊鏈會員儲值方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -911,10 +935,10 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -1496,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="8">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>55</v>
@@ -1511,24 +1535,52 @@
       <c r="G25" s="21"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="18">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="21"/>
+    <row r="26" spans="1:11" ht="34">
+      <c r="A26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="8">
+        <v>44804</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="8">
+        <v>44805</v>
+      </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="18">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="21"/>
+    <row r="27" spans="1:11" ht="38">
+      <c r="A27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="8">
+        <v>44804</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="4">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="8">
+        <v>44805</v>
+      </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="18">

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF1C0A3-3282-FD4A-87A4-426A92B42052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA026FE-AD0A-A349-9F7F-10DDFB62602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -320,6 +320,34 @@
   </si>
   <si>
     <t>非區塊鏈會員儲值方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改介面、串入金功能、串合約讀現金點數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組資訊、分攤金計算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>實作model調整並migrate，重新餵入資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新調整欄位、備註以及按鈕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根據區塊鏈使用者與非區塊鏈使用者的區別，重新定義了userInfo、參與者資料表，並刪除wallet資料表，把其欄位移植到userinfo資料表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -343,12 +371,6 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
@@ -392,40 +414,41 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
+      <name val="黑體-繁 中黑"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="細明體"/>
-      <family val="3"/>
+      <name val="黑體-繁 中黑"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="MingLiU"/>
-      <family val="1"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑體-繁 中黑"/>
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="黑體-繁 中黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="黑體-繁 中黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="黑體-繁 中黑"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -513,82 +536,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -935,10 +979,10 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -950,694 +994,972 @@
     <col min="8" max="16384" width="15.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="20" customFormat="1" ht="22">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="19">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="1:16" ht="51">
-      <c r="A2" s="7" t="s">
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" ht="45">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="22">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
-    </row>
-    <row r="3" spans="1:16" ht="68">
-      <c r="A3" s="7" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" ht="60">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="22" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
-    </row>
-    <row r="4" spans="1:16" ht="51">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" ht="32">
+      <c r="A4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
         <v>44782</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="22">
         <v>5</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="68">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" ht="60">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="19">
         <v>44783</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="22">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="38">
-      <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" ht="32">
+      <c r="A6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="19">
         <v>44785</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="22">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="68">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:16" ht="60">
+      <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="19">
         <v>44788</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="22">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="25">
         <v>44790</v>
       </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="68">
-      <c r="A8" s="7" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:16" ht="60">
+      <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="19">
         <v>44789</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="22">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="25">
         <v>44790</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="38">
-      <c r="A9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="1:16" ht="32">
+      <c r="A9" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19">
         <v>44790</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="22">
         <v>5</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="68">
-      <c r="A10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:16" ht="60">
+      <c r="A10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19">
         <v>44792</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="38">
-      <c r="A11" s="7" t="s">
+      <c r="E10" s="22">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" ht="32">
+      <c r="A11" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="19">
         <v>44792</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="22">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="25">
         <v>44795</v>
       </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="38">
-      <c r="A12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:16" ht="32">
+      <c r="A12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19">
         <v>44792</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="68">
-      <c r="A13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="E12" s="22">
+        <v>2</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:16" ht="60">
+      <c r="A13" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19">
         <v>44794</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="34">
-      <c r="A14" s="7" t="s">
+      <c r="E13" s="22">
+        <v>2</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="1:16" ht="30">
+      <c r="A14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="19">
         <v>44795</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="22">
+        <v>2</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="38">
-      <c r="A15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" ht="32">
+      <c r="A15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19">
         <v>44795</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="22">
         <v>3</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="68">
-      <c r="A16" s="7" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" ht="60">
+      <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="19">
         <v>44795</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="25">
         <v>44796</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="38">
-      <c r="A17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="1:16" ht="32">
+      <c r="A17" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19">
         <v>44796</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="22">
         <v>3</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="85">
-      <c r="A18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="F17" s="22"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:16" ht="75">
+      <c r="A18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="19">
         <v>44797</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1" t="s">
+      <c r="E18" s="22">
+        <v>2</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="34">
-      <c r="A19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="1:16" ht="30">
+      <c r="A19" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="19">
         <v>44797</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="2"/>
-      <c r="K19" s="1" t="s">
+      <c r="E19" s="22">
+        <v>2</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="34">
-      <c r="A20" s="7" t="s">
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="1:16" ht="30">
+      <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="19">
         <v>44797</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="22">
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="25">
         <v>44798</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="51">
-      <c r="A21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+    </row>
+    <row r="21" spans="1:16" ht="45">
+      <c r="A21" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="19">
         <v>44798</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="22">
         <v>3</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="34">
-      <c r="A22" s="7" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+    </row>
+    <row r="22" spans="1:16" ht="30">
+      <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="19">
         <v>44801</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="22">
         <v>3</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="25">
         <v>44802</v>
       </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="34">
-      <c r="A23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="1:16" ht="30">
+      <c r="A23" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="19">
         <v>44801</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="68">
-      <c r="A24" s="7" t="s">
+      <c r="E23" s="22">
+        <v>2</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="1:16" ht="60">
+      <c r="A24" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="19">
         <v>44802</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="22">
         <v>3</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="68">
-      <c r="A25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="F24" s="22"/>
+      <c r="G24" s="19">
+        <v>44806</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="25" spans="1:16" ht="60">
+      <c r="A25" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="19">
         <v>44803</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="22">
         <v>7</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="34">
-      <c r="A26" s="7" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="1:16" ht="30">
+      <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="19">
         <v>44804</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="22">
+        <v>2</v>
+      </c>
+      <c r="F26" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="19">
         <v>44805</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="38">
-      <c r="A27" s="7" t="s">
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:16" ht="32">
+      <c r="A27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="19">
         <v>44804</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="22">
         <v>6</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="19">
         <v>44805</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="18">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="18">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="18">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="18">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="18">
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="1:16" ht="45">
+      <c r="A28" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="19">
+        <v>44805</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="22">
+        <v>2</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="19">
+        <v>44806</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="1:16" ht="120">
+      <c r="A29" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="19">
+        <v>44805</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="22">
+        <v>2</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="19">
+        <v>44805</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="1:16" ht="45">
+      <c r="A30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="19">
+        <v>44805</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="29">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="1:16" ht="30">
+      <c r="A31" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="19">
+        <v>44805</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="19">
+        <v>44806</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="1:16" ht="18">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="L3:P3"/>
+    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.33" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA026FE-AD0A-A349-9F7F-10DDFB62602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFAD36B-11CB-8E4D-9606-B2DE809A316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -348,6 +348,10 @@
   </si>
   <si>
     <t>根據區塊鏈使用者與非區塊鏈使用者的區別，重新定義了userInfo、參與者資料表，並刪除wallet資料表，把其欄位移植到userinfo資料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫入action資料表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +986,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -1716,7 +1720,9 @@
       <c r="E24" s="22">
         <v>3</v>
       </c>
-      <c r="F24" s="22"/>
+      <c r="F24" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="G24" s="19">
         <v>44806</v>
       </c>

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFAD36B-11CB-8E4D-9606-B2DE809A316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907DC328-00D6-7547-8221-3E1B7EA2C1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -352,6 +352,54 @@
   </si>
   <si>
     <t>寫入action資料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action資料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action資料表建制，並在加入群組、入金、出金、減額等使用者操作請求提出時會寫入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加表單寫入 action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參加表單寫入 action 資料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者後台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者後台能夠看到提出的加入申請、並連結Dapplet，能成功發出交易，收到txhash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到txhash之後用thread等tx receipt，並讀取log topic、data，更新系統資料庫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組資訊頁面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>確切資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組資訊頁面前端完成、餘額打API取得、部分欄位預定位置放好。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -375,6 +423,12 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
@@ -418,19 +472,15 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="黑體-繁 中黑"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="黑體-繁 中黑"/>
-      <charset val="136"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -439,19 +489,9 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="黑體-繁 中黑"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="黑體-繁 中黑"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="黑體-繁 中黑"/>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -540,102 +580,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,13 +1005,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -998,137 +1023,137 @@
     <col min="8" max="16384" width="15.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="19">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="22">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" ht="45">
-      <c r="A2" s="18" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" ht="51">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="24"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-    </row>
-    <row r="3" spans="1:16" ht="60">
-      <c r="A3" s="18" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" ht="68">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="2"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="17" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" ht="32">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" ht="51">
+      <c r="A4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
         <v>44782</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
@@ -1138,29 +1163,29 @@
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
-    <row r="5" spans="1:16" ht="60">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:16" ht="68">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="8">
         <v>44783</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="24"/>
@@ -1170,25 +1195,25 @@
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="1:16" ht="32">
-      <c r="A6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19">
+    <row r="6" spans="1:16" ht="38">
+      <c r="A6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
         <v>44785</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="24"/>
@@ -1198,29 +1223,29 @@
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16" ht="60">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:16" ht="68">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="8">
         <v>44788</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="14">
         <v>44790</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -1230,29 +1255,29 @@
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="1:16" ht="60">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:16" ht="68">
+      <c r="A8" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="8">
         <v>44789</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="14">
         <v>44790</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
@@ -1262,25 +1287,25 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" spans="1:16" ht="32">
-      <c r="A9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19">
+    <row r="9" spans="1:16" ht="38">
+      <c r="A9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8">
         <v>44790</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1290,25 +1315,25 @@
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
     </row>
-    <row r="10" spans="1:16" ht="60">
-      <c r="A10" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19">
+    <row r="10" spans="1:16" ht="68">
+      <c r="A10" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
         <v>44792</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="22">
-        <v>2</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -1318,29 +1343,29 @@
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
     </row>
-    <row r="11" spans="1:16" ht="32">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:16" ht="38">
+      <c r="A11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="8">
         <v>44792</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="22">
-        <v>2</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="14">
         <v>44795</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
@@ -1350,25 +1375,25 @@
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="1:16" ht="32">
-      <c r="A12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="19">
+    <row r="12" spans="1:16" ht="38">
+      <c r="A12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8">
         <v>44792</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -1378,25 +1403,25 @@
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="1:16" ht="60">
-      <c r="A13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="19">
+    <row r="13" spans="1:16" ht="68">
+      <c r="A13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
         <v>44794</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="22">
-        <v>2</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -1406,27 +1431,27 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="1:16" ht="30">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:16" ht="34">
+      <c r="A14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="8">
         <v>44795</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="22">
-        <v>2</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -1436,25 +1461,25 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:16" ht="32">
-      <c r="A15" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19">
+    <row r="15" spans="1:16" ht="38">
+      <c r="A15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
         <v>44795</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="4">
         <v>3</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -1464,29 +1489,29 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
     </row>
-    <row r="16" spans="1:16" ht="60">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:16" ht="68">
+      <c r="A16" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="8">
         <v>44795</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="4">
         <v>1</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="14">
         <v>44796</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -1496,25 +1521,25 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="1:16" ht="32">
-      <c r="A17" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="19">
+    <row r="17" spans="1:16" ht="38">
+      <c r="A17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8">
         <v>44796</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="23"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
@@ -1524,25 +1549,25 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="1:16" ht="75">
-      <c r="A18" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="19">
+    <row r="18" spans="1:16" ht="85">
+      <c r="A18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8">
         <v>44797</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="22">
-        <v>2</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="24" t="s">
         <v>23</v>
       </c>
@@ -1554,25 +1579,25 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="1:16" ht="30">
-      <c r="A19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="19">
+    <row r="19" spans="1:16" ht="34">
+      <c r="A19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8">
         <v>44797</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="22">
-        <v>2</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24" t="s">
@@ -1584,29 +1609,29 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="1:16" ht="30">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:16" ht="34">
+      <c r="A20" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="8">
         <v>44797</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="14">
         <v>44798</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -1616,25 +1641,25 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
     </row>
-    <row r="21" spans="1:16" ht="45">
-      <c r="A21" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="19">
+    <row r="21" spans="1:16" ht="51">
+      <c r="A21" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8">
         <v>44798</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="23"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -1644,29 +1669,29 @@
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="1:16" ht="30">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:16" ht="34">
+      <c r="A22" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="8">
         <v>44801</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="14">
         <v>44802</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -1676,25 +1701,25 @@
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="1:16" ht="30">
-      <c r="A23" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="19">
+    <row r="23" spans="1:16" ht="34">
+      <c r="A23" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8">
         <v>44801</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="22">
-        <v>2</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="23"/>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -1704,29 +1729,29 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="1:16" ht="60">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:16" ht="68">
+      <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="8">
         <v>44802</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="4">
         <v>3</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="8">
         <v>44806</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -1736,25 +1761,25 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
     </row>
-    <row r="25" spans="1:16" ht="60">
-      <c r="A25" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="19">
+    <row r="25" spans="1:16" ht="68">
+      <c r="A25" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
         <v>44803</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="4">
         <v>7</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -1764,29 +1789,29 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
     </row>
-    <row r="26" spans="1:16" ht="30">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:16" ht="34">
+      <c r="A26" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="8">
         <v>44804</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="22">
-        <v>2</v>
-      </c>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="8">
         <v>44805</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
@@ -1796,29 +1821,29 @@
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
     </row>
-    <row r="27" spans="1:16" ht="32">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:16" ht="38">
+      <c r="A27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="8">
         <v>44804</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="4">
         <v>6</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="8">
         <v>44805</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
@@ -1828,29 +1853,29 @@
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
     </row>
-    <row r="28" spans="1:16" ht="45">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:16" ht="51">
+      <c r="A28" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="8">
         <v>44805</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="22">
-        <v>2</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="8">
         <v>44806</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
@@ -1860,29 +1885,29 @@
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
     </row>
-    <row r="29" spans="1:16" ht="120">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:16" ht="136">
+      <c r="A29" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="8">
         <v>44805</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="22">
-        <v>2</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="8">
         <v>44805</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -1892,25 +1917,25 @@
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
     </row>
-    <row r="30" spans="1:16" ht="45">
-      <c r="A30" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="19">
+    <row r="30" spans="1:16" ht="51">
+      <c r="A30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="8">
         <v>44805</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="17">
         <v>1</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="23"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
@@ -1920,27 +1945,25 @@
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
     </row>
-    <row r="31" spans="1:16" ht="30">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:16" ht="34">
+      <c r="A31" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="8">
         <v>44805</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="19">
-        <v>44806</v>
-      </c>
-      <c r="H31" s="23"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
@@ -1950,15 +1973,235 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
     </row>
-    <row r="32" spans="1:16" ht="18">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
+    <row r="32" spans="1:16" ht="85">
+      <c r="A32" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="8">
+        <v>44806</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="14"/>
       <c r="H32" s="2"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="1:16" ht="38">
+      <c r="A33" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>44806</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="1:16" ht="102">
+      <c r="A34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="8">
+        <v>44806</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="1:16" ht="85">
+      <c r="A35" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="8">
+        <v>44807</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:16" ht="68">
+      <c r="A36" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="8">
+        <v>44808</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+    </row>
+    <row r="37" spans="1:16" ht="19">
+      <c r="A37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="16">
+        <v>44808</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" ht="18">
+      <c r="A38" s="7"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" ht="18">
+      <c r="A39" s="7"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" ht="18">
+      <c r="A40" s="7"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" ht="18">
+      <c r="A41" s="7"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" ht="18">
+      <c r="A42" s="7"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" ht="18">
+      <c r="A43" s="7"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" ht="18">
+      <c r="A44" s="7"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/風險互助專案.xlsx
+++ b/風險互助專案.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfeecnc/tt@django/TT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907DC328-00D6-7547-8221-3E1B7EA2C1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7505FAFD-271D-F545-8683-4A213517DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="22100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pipeline" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>B</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -399,7 +399,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ㄑ</t>
+    <t>區塊鏈使用者透過transferPresign移轉現金點數，非區塊鏈使用者目前只再DB做加減</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出群組</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申請給付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>減額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完備所有功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,37 +646,49 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1008,10 +1036,10 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="16"/>
@@ -1030,41 +1058,41 @@
       <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" ht="51">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1086,21 +1114,21 @@
         <v>19</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="68">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1122,21 +1150,21 @@
         <v>17</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="1:16" ht="51">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="8">
@@ -1154,17 +1182,17 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:16" ht="68">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8">
@@ -1186,17 +1214,17 @@
         <v>19</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:16" ht="38">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8">
@@ -1214,17 +1242,17 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16" ht="68">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8">
@@ -1246,17 +1274,17 @@
         <v>44790</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="1:16" ht="68">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="8">
@@ -1278,17 +1306,17 @@
         <v>44790</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" spans="1:16" ht="38">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="8">
@@ -1306,17 +1334,17 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:16" ht="68">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="8">
@@ -1334,17 +1362,17 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" spans="1:16" ht="38">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="8">
@@ -1366,17 +1394,17 @@
         <v>44795</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:16" ht="38">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="8">
@@ -1394,17 +1422,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16" ht="68">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="8">
@@ -1422,17 +1450,17 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" ht="34">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="8">
@@ -1452,17 +1480,17 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" ht="38">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8">
@@ -1480,17 +1508,17 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" spans="1:16" ht="68">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="8">
@@ -1512,17 +1540,17 @@
         <v>44796</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="38">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="8">
@@ -1540,17 +1568,17 @@
       <c r="F17" s="4"/>
       <c r="G17" s="14"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="1:16" ht="85">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="8">
@@ -1568,19 +1596,19 @@
       <c r="F18" s="4"/>
       <c r="G18" s="14"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16" ht="34">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8">
@@ -1598,19 +1626,19 @@
       <c r="F19" s="4"/>
       <c r="G19" s="14"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16" ht="34">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="8">
@@ -1632,17 +1660,17 @@
         <v>44798</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" ht="51">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8">
@@ -1660,17 +1688,17 @@
       <c r="F21" s="4"/>
       <c r="G21" s="14"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16" ht="34">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="8">
@@ -1692,17 +1720,17 @@
         <v>44802</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="1:16" ht="34">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8">
@@ -1720,17 +1748,17 @@
       <c r="F23" s="4"/>
       <c r="G23" s="14"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
     <row r="24" spans="1:16" ht="68">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="8">
@@ -1752,17 +1780,17 @@
         <v>44806</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
     </row>
     <row r="25" spans="1:16" ht="68">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="8">
@@ -1780,17 +1808,17 @@
       <c r="F25" s="4"/>
       <c r="G25" s="14"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="1:16" ht="34">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="8">
@@ -1812,17 +1840,17 @@
         <v>44805</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="27" spans="1:16" ht="38">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="8">
@@ -1844,17 +1872,17 @@
         <v>44805</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
     </row>
     <row r="28" spans="1:16" ht="51">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="8">
@@ -1876,17 +1904,17 @@
         <v>44806</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
     </row>
     <row r="29" spans="1:16" ht="136">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="8">
@@ -1908,17 +1936,17 @@
         <v>44805</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
     </row>
     <row r="30" spans="1:16" ht="51">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="8">
@@ -1930,23 +1958,23 @@
       <c r="D30" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="24">
         <v>1</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="14"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
     </row>
     <row r="31" spans="1:16" ht="34">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="8">
@@ -1958,23 +1986,23 @@
       <c r="D31" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
     </row>
     <row r="32" spans="1:16" ht="85">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="8">
@@ -1992,17 +2020,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="14"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
     </row>
     <row r="33" spans="1:16" ht="38">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="8">
@@ -2020,17 +2048,17 @@
       <c r="F33" s="4"/>
       <c r="G33" s="14"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
     </row>
     <row r="34" spans="1:16" ht="102">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="8">
@@ -2048,17 +2076,17 @@
       <c r="F34" s="4"/>
       <c r="G34" s="14"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
     </row>
     <row r="35" spans="1:16" ht="85">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="8">
@@ -2076,17 +2104,17 @@
       <c r="F35" s="4"/>
       <c r="G35" s="14"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
     </row>
     <row r="36" spans="1:16" ht="68">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="8">
@@ -2106,66 +2134,90 @@
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-    </row>
-    <row r="37" spans="1:16" ht="19">
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+    </row>
+    <row r="37" spans="1:16" ht="85">
       <c r="A37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="16">
+        <v>2</v>
+      </c>
+      <c r="B37" s="15">
         <v>44808</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="14"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="18">
-      <c r="A38" s="7"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="4"/>
+    <row r="38" spans="1:16" ht="19">
+      <c r="A38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="15">
+        <v>44808</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="24">
+        <v>6</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="14"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="18">
-      <c r="A39" s="7"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
+    <row r="39" spans="1:16" ht="19">
+      <c r="A39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="15">
+        <v>44808</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="29"/>
       <c r="F39" s="4"/>
       <c r="G39" s="14"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="18">
-      <c r="A40" s="7"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
+    <row r="40" spans="1:16" ht="19">
+      <c r="A40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="15">
+        <v>44808</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="28"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="4"/>
       <c r="G40" s="14"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:16" ht="18">
       <c r="A41" s="7"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="9"/>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
@@ -2175,7 +2227,7 @@
     </row>
     <row r="42" spans="1:16" ht="18">
       <c r="A42" s="7"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="9"/>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
@@ -2185,7 +2237,7 @@
     </row>
     <row r="43" spans="1:16" ht="18">
       <c r="A43" s="7"/>
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="9"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
@@ -2195,7 +2247,7 @@
     </row>
     <row r="44" spans="1:16" ht="18">
       <c r="A44" s="7"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="9"/>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
@@ -2204,11 +2256,12 @@
       <c r="H44" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E38:E40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.33" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
